--- a/V.xlsx
+++ b/V.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC5BE7-3972-4D1F-8EE9-FA167E05A168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA139366-8D30-48CD-B77F-00B184B5D423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="2310" windowWidth="25965" windowHeight="16125" xr2:uid="{D7A11B22-4522-467B-9402-0B9402DE3F95}"/>
+    <workbookView xWindow="50490" yWindow="680" windowWidth="24340" windowHeight="15680" xr2:uid="{D7A11B22-4522-467B-9402-0B9402DE3F95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>Price</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Q223</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Revenue y/y</t>
   </si>
   <si>
@@ -316,6 +313,21 @@
   </si>
   <si>
     <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -419,16 +431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>30036</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47354</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>30036</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47354</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:rowOff>86254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -443,8 +455,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9538471" y="13138"/>
-          <a:ext cx="0" cy="17479732"/>
+          <a:off x="11921854" y="0"/>
+          <a:ext cx="0" cy="17225481"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -790,14 +802,14 @@
   <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -811,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>2120</v>
+        <v>2079</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -823,7 +835,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>767440</v>
+        <v>752598</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -831,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <v>19203</v>
+        <v>22986</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -842,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="2">
-        <v>20609</v>
+        <v>25171</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -854,7 +866,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>768846</v>
+        <v>754783</v>
       </c>
     </row>
   </sheetData>
@@ -864,13 +876,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FDF777-564E-431B-B3DF-DE9720FAF314}">
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AJ103"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
+      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -879,15 +891,15 @@
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="9.1796875" style="3"/>
     <col min="10" max="14" width="9.1796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" customWidth="1"/>
+    <col min="15" max="19" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -920,8 +932,24 @@
       <c r="O2" s="11">
         <v>45657</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P2" s="11">
+        <f>+L2+365</f>
+        <v>45747</v>
+      </c>
+      <c r="Q2" s="11">
+        <f>+M2+365</f>
+        <v>45838</v>
+      </c>
+      <c r="R2" s="11">
+        <f>+N2+365</f>
+        <v>45930</v>
+      </c>
+      <c r="S2" s="11">
+        <f>+O2+365</f>
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -941,93 +969,105 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3">
+      <c r="Q3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3">
         <v>2020</v>
       </c>
-      <c r="R3">
-        <f>+Q3+1</f>
+      <c r="V3">
+        <f>+U3+1</f>
         <v>2021</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:AF3" si="0">+R3+1</f>
+      <c r="W3">
+        <f t="shared" ref="W3:AJ3" si="0">+V3+1</f>
         <v>2022</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X3">
+      <c r="AB3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y3">
+      <c r="AC3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Z3">
+      <c r="AD3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AA3">
+      <c r="AE3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AB3">
+      <c r="AF3">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AD3">
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AE3">
+      <c r="AI3">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AF3">
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1052,17 +1092,21 @@
       <c r="O4" s="5">
         <v>603</v>
       </c>
-      <c r="T4" s="2">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="X4" s="2">
         <v>2382</v>
       </c>
-      <c r="U4" s="2">
-        <f t="shared" ref="U4:U9" si="1">SUM(L4:O4)</f>
+      <c r="Y4" s="2">
+        <f t="shared" ref="Y4:Y9" si="1">SUM(L4:O4)</f>
         <v>2330</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1087,17 +1131,21 @@
       <c r="O5" s="5">
         <v>118</v>
       </c>
-      <c r="T5" s="2">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="X5" s="2">
         <v>422</v>
       </c>
-      <c r="U5" s="2">
+      <c r="Y5" s="2">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1122,17 +1170,21 @@
       <c r="O6" s="5">
         <v>335</v>
       </c>
-      <c r="T6" s="2">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="X6" s="2">
         <v>1168</v>
       </c>
-      <c r="U6" s="2">
+      <c r="Y6" s="2">
         <f t="shared" si="1"/>
         <v>1272</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1157,17 +1209,21 @@
       <c r="O7" s="5">
         <v>376</v>
       </c>
-      <c r="T7" s="2">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="X7" s="2">
         <v>1389</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <f t="shared" si="1"/>
         <v>1445</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1192,17 +1248,21 @@
       <c r="O8" s="5">
         <v>1869</v>
       </c>
-      <c r="T8" s="2">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="X8" s="2">
         <v>6824</v>
       </c>
-      <c r="U8" s="2">
+      <c r="Y8" s="2">
         <f t="shared" si="1"/>
         <v>7181</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1227,17 +1287,21 @@
       <c r="O9" s="5">
         <v>846</v>
       </c>
-      <c r="T9" s="2">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="X9" s="2">
         <v>2933</v>
       </c>
-      <c r="U9" s="2">
+      <c r="Y9" s="2">
         <f t="shared" si="1"/>
         <v>3239</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1267,18 +1331,22 @@
         <f>+O11+O12</f>
         <v>4148</v>
       </c>
-      <c r="T10" s="2">
-        <f>T11+T12</f>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="X10" s="2">
+        <f>X11+X12</f>
         <v>15078</v>
       </c>
-      <c r="U10" s="2">
-        <f>U11+U12</f>
+      <c r="Y10" s="2">
+        <f>Y11+Y12</f>
         <v>15917</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1303,17 +1371,21 @@
       <c r="O11" s="5">
         <v>1799</v>
       </c>
-      <c r="T11" s="2">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="X11" s="2">
         <v>6511</v>
       </c>
-      <c r="U11" s="2">
+      <c r="Y11" s="2">
         <f>SUM(L11:O11)</f>
         <v>6866</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1338,20 +1410,28 @@
       <c r="O12" s="5">
         <v>2349</v>
       </c>
-      <c r="T12" s="2">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="X12" s="2">
         <v>8567</v>
       </c>
-      <c r="U12" s="2">
+      <c r="Y12" s="2">
         <f>SUM(L12:O12)</f>
         <v>9051</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1376,17 +1456,21 @@
       <c r="O14" s="5">
         <v>28271</v>
       </c>
-      <c r="T14" s="2">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="X14" s="2">
         <v>96422</v>
       </c>
-      <c r="U14" s="2">
+      <c r="Y14" s="2">
         <f>SUM(L14:O14)</f>
         <v>106492</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1411,17 +1495,21 @@
       <c r="O15" s="5">
         <v>49185</v>
       </c>
-      <c r="T15" s="2">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="X15" s="2">
         <v>170276</v>
       </c>
-      <c r="U15" s="2">
+      <c r="Y15" s="2">
         <f>SUM(L15:O15)</f>
         <v>186975</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1451,16 +1539,20 @@
         <f>+O15+O14</f>
         <v>77456</v>
       </c>
-      <c r="T16" s="2">
-        <f>+T14+T15</f>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="X16" s="2">
+        <f>+X14+X15</f>
         <v>266698</v>
       </c>
-      <c r="U16" s="2">
-        <f>+U15+U14</f>
+      <c r="Y16" s="2">
+        <f>+Y15+Y14</f>
         <v>293467</v>
       </c>
     </row>
-    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1474,10 +1566,14 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1500,13 +1596,17 @@
         <v>4170</v>
       </c>
       <c r="O18" s="5"/>
-      <c r="T18" s="2">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="X18" s="2">
         <v>3986</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1529,16 +1629,24 @@
         <v>4700</v>
       </c>
       <c r="O19" s="5"/>
-      <c r="T19" s="2">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="X19" s="2">
         <v>4481</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1571,10 +1679,14 @@
       <c r="O21" s="5">
         <v>4208</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1607,10 +1719,14 @@
       <c r="O22" s="5">
         <v>4745</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1643,10 +1759,14 @@
       <c r="O23" s="5">
         <v>3442</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1679,10 +1799,14 @@
       <c r="O24" s="5">
         <v>912</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1715,8 +1839,12 @@
       <c r="O25" s="5">
         <v>-3797</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1730,8 +1858,12 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="2:20" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1874,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:O27" si="5">SUM(G21:G25)</f>
+        <f t="shared" ref="G27:S27" si="5">SUM(G21:G25)</f>
         <v>7936</v>
       </c>
       <c r="H27" s="6">
@@ -1777,10 +1909,23 @@
         <f t="shared" si="5"/>
         <v>9510</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="6">
+        <v>9594</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>10172</v>
+      </c>
+      <c r="R27" s="6">
+        <v>10724</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
@@ -1815,10 +1960,19 @@
       <c r="O28" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="2">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>224</v>
+      </c>
+      <c r="R28" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5">
@@ -1828,7 +1982,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5">
-        <f t="shared" ref="G29:O29" si="6">+G27-G28</f>
+        <f t="shared" ref="G29:P29" si="6">+G27-G28</f>
         <v>7758</v>
       </c>
       <c r="H29" s="5">
@@ -1863,10 +2017,22 @@
         <f t="shared" si="6"/>
         <v>9303</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="2">
+        <f t="shared" si="6"/>
+        <v>9370</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>+Q27-Q28</f>
+        <v>9948</v>
+      </c>
+      <c r="R29" s="2">
+        <f>+R27-R28</f>
+        <v>10485</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5">
@@ -1901,10 +2067,19 @@
       <c r="O30" s="2">
         <v>1813</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="2">
+        <v>1657</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1749</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
@@ -1939,10 +2114,19 @@
       <c r="O31" s="2">
         <v>306</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="2">
+        <v>381</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>421</v>
+      </c>
+      <c r="R31" s="2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5">
@@ -1977,10 +2161,19 @@
       <c r="O32" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>187</v>
+      </c>
+      <c r="R32" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5">
@@ -2015,10 +2208,19 @@
       <c r="O33" s="2">
         <v>481</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="2">
+        <v>419</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>482</v>
+      </c>
+      <c r="R33" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5">
@@ -2069,22 +2271,35 @@
         <f t="shared" si="9"/>
         <v>2743</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="5">
+        <f t="shared" ref="P34:R34" si="10">SUM(P30:P33)</f>
+        <v>2630</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="10"/>
+        <v>2839</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="10"/>
+        <v>3118</v>
+      </c>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5">
-        <f t="shared" ref="D35:F35" si="10">+D29-D34</f>
+        <f t="shared" ref="D35:F35" si="11">+D29-D34</f>
         <v>5009</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G35" s="5">
@@ -2092,41 +2307,54 @@
         <v>5658</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ref="H35" si="11">+H29-H34</f>
+        <f t="shared" ref="H35" si="12">+H29-H34</f>
         <v>5570</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" ref="I35:O35" si="12">+I29-I34</f>
+        <f t="shared" ref="I35:O35" si="13">+I29-I34</f>
         <v>5716</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5926</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6210</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6004</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6215</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6633</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6560</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="5">
+        <f t="shared" ref="P35:R35" si="14">+P29-P34</f>
+        <v>6740</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="14"/>
+        <v>7109</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="14"/>
+        <v>7367</v>
+      </c>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5">
@@ -2163,64 +2391,87 @@
       <c r="O36" s="2">
         <v>-34</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>156</v>
+      </c>
+      <c r="R36" s="2">
+        <f>-210+285</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:F37" si="13">+D35+D36</f>
+        <f t="shared" ref="D37:F37" si="15">+D35+D36</f>
         <v>4749</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" ref="G37:O37" si="14">+G35+G36</f>
+        <f t="shared" ref="G37:R37" si="16">+G35+G36</f>
         <v>5545</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5512</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5838</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6012</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6298</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6163</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6266</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6656</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6526</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="5">
+        <f t="shared" si="16"/>
+        <v>6743</v>
+      </c>
+      <c r="Q37" s="5">
+        <f t="shared" si="16"/>
+        <v>7265</v>
+      </c>
+      <c r="R37" s="5">
+        <f t="shared" si="16"/>
+        <v>7442</v>
+      </c>
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5">
@@ -2255,107 +2506,141 @@
       <c r="O38" s="2">
         <v>1081</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="2">
+        <v>861</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1061</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5">
-        <f t="shared" ref="D39:F39" si="15">+D37-D38</f>
+        <f t="shared" ref="D39:F39" si="17">+D37-D38</f>
         <v>3854</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" ref="G39:O39" si="16">+G37-G38</f>
+        <f t="shared" ref="G39:R39" si="18">+G37-G38</f>
         <v>4747</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4491</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4848</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5057</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5146</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5313</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5149</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5602</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5445</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="2">
+        <f t="shared" si="18"/>
+        <v>5882</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="18"/>
+        <v>6204</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="18"/>
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="9">
         <f>+D39/D41</f>
         <v>1.607843137254902</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" ref="G40:O40" si="17">+G39/G41</f>
+        <f t="shared" ref="G40:R40" si="19">+G39/G41</f>
         <v>2.0140008485362748</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9126916524701874</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.5939004815409308</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.1797413793103448</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.2383645063070898</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.3170518970780636</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.8447513812154694</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.6116550116550115</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.5683962264150941</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="1">
+        <f t="shared" si="19"/>
+        <v>2.7903225806451615</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="19"/>
+        <v>2.9641662685140946</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="19"/>
+        <v>3.0346320346320348</v>
+      </c>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
@@ -2402,10 +2687,22 @@
         <f>1985+5+120+10</f>
         <v>2120</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="2">
+        <f>1974+5+120+9</f>
+        <v>2108</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>1959+5+120+9</f>
+        <v>2093</v>
+      </c>
+      <c r="R41" s="2">
+        <f>1945+5+120+9</f>
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2429,30 +2726,53 @@
         <f>+O27/K27-1</f>
         <v>0.10145934676858936</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="4">
+        <f>+P27/L27-1</f>
+        <v>9.3333333333333268E-2</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>+Q27/M27-1</f>
+        <v>0.14292134831460679</v>
+      </c>
+      <c r="R43" s="4">
+        <f>+R27/N27-1</f>
+        <v>0.11510866174482692</v>
+      </c>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L44" s="4"/>
       <c r="O44" s="4">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" ref="D45:F45" si="18">+D29/D27</f>
+        <f t="shared" ref="D45:F45" si="20">+D29/D27</f>
         <v>0.973570733064404</v>
       </c>
       <c r="E45" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="4">
@@ -2468,19 +2788,19 @@
         <v>0.97711697061215008</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" ref="J45:M45" si="19">+J29/J27</f>
+        <f t="shared" ref="J45:M45" si="21">+J29/J27</f>
         <v>0.97711697061215008</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.9790363678480426</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.97846153846153849</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.97752808988764039</v>
       </c>
       <c r="N45" s="4">
@@ -2491,29 +2811,42 @@
         <f>+O29/O27</f>
         <v>0.97823343848580446</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="4">
+        <f>+P29/P27</f>
+        <v>0.97665207421304978</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>+Q29/Q27</f>
+        <v>0.97797876523790794</v>
+      </c>
+      <c r="R45" s="4">
+        <f>+R29/R27</f>
+        <v>0.97771353972398356</v>
+      </c>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" ref="D46:F46" si="20">+D35/D27</f>
+        <f t="shared" ref="D46:F46" si="22">+D35/D27</f>
         <v>0.69675893726526639</v>
       </c>
       <c r="E46" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" ref="G46:K46" si="21">+G35/G27</f>
+        <f t="shared" ref="G46:K46" si="23">+G35/G27</f>
         <v>0.71295362903225812</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.69755792110206638</v>
       </c>
       <c r="I46" s="4">
@@ -2521,11 +2854,11 @@
         <v>0.68834940178882564</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.68834940178882564</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.71924947880472545</v>
       </c>
       <c r="L46" s="4">
@@ -2544,21 +2877,34 @@
         <f>+O35/O27</f>
         <v>0.68980021030494221</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="4">
+        <f>+P35/P27</f>
+        <v>0.702522409839483</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>+Q35/Q27</f>
+        <v>0.69887927644514358</v>
+      </c>
+      <c r="R46" s="4">
+        <f>+R35/R27</f>
+        <v>0.6869638194703469</v>
+      </c>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" ref="K47:M47" si="22">+K39/G39-1</f>
+        <f t="shared" ref="K47:M47" si="24">+K39/G39-1</f>
         <v>8.4053086159679768E-2</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.18303273213092863</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.2087458745874624E-2</v>
       </c>
       <c r="N47" s="4">
@@ -2569,49 +2915,66 @@
         <f>+O39/K39-1</f>
         <v>5.810338126700354E-2</v>
       </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" ref="G49:O49" si="23">+G50-G67</f>
+        <f t="shared" ref="G49:R49" si="25">+G50-G67</f>
         <v>72</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>444</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1945</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3350</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2318</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1776</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>675</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-27</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-1406</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="5">
+        <f t="shared" si="25"/>
+        <v>-2185</v>
+      </c>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2655,10 +3018,14 @@
         <f>12367+3112+1967+1757</f>
         <v>19203</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="2">
+        <f>17164+2990+1833+999</f>
+        <v>22986</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2691,10 +3058,13 @@
       <c r="O51" s="2">
         <v>3683</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="2">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2727,10 +3097,13 @@
       <c r="O52" s="2">
         <v>2590</v>
       </c>
-    </row>
-    <row r="53" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="2">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2763,10 +3136,13 @@
       <c r="O53" s="2">
         <v>3518</v>
       </c>
-    </row>
-    <row r="54" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="2">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2808,10 +3184,14 @@
         <f>1992+4631</f>
         <v>6623</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="2">
+        <f>2158+5157</f>
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2844,10 +3224,13 @@
       <c r="O55" s="2">
         <v>3393</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="2">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2880,10 +3263,13 @@
       <c r="O56" s="2">
         <v>3974</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="2">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2925,10 +3311,14 @@
         <f>19548+25889</f>
         <v>45437</v>
       </c>
-    </row>
-    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="2">
+        <f>19879+27646</f>
+        <v>47525</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2961,53 +3351,69 @@
       <c r="O58" s="2">
         <v>3467</v>
       </c>
-    </row>
-    <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="2">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
-        <f t="shared" ref="G59:O59" si="24">SUM(G50:G58)</f>
+        <f t="shared" ref="G59:R59" si="26">SUM(G50:G58)</f>
         <v>85387</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>86755</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>89234</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>90499</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>91409</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>92399</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>91040</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>94511</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>91888</v>
       </c>
-    </row>
-    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="5">
+        <f t="shared" si="26"/>
+        <v>99627</v>
+      </c>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3021,9 +3427,9 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3056,10 +3462,13 @@
       <c r="O61" s="2">
         <v>405</v>
       </c>
-    </row>
-    <row r="62" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3101,10 +3510,14 @@
         <f>4425+1649</f>
         <v>6074</v>
       </c>
-    </row>
-    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="2">
+        <f>4568+3033</f>
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3137,10 +3550,13 @@
       <c r="O63" s="2">
         <v>3518</v>
       </c>
-    </row>
-    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="2">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3173,10 +3589,13 @@
       <c r="O64" s="2">
         <v>1226</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="2">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3209,10 +3628,13 @@
       <c r="O65" s="2">
         <v>9249</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="2">
+        <v>10369</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3245,8 +3667,11 @@
       <c r="O66" s="2">
         <v>4690</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="2">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>4</v>
       </c>
@@ -3282,10 +3707,14 @@
         <f>3929+16680</f>
         <v>20609</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="2">
+        <f>5569+19602</f>
+        <v>25171</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3318,10 +3747,13 @@
       <c r="O68" s="2">
         <v>5192</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="2">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3354,10 +3786,13 @@
       <c r="O69" s="2">
         <v>2629</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="2">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3390,74 +3825,90 @@
       <c r="O70" s="2">
         <v>38296</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R70" s="2">
+        <v>37909</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5">
-        <f t="shared" ref="G71:O71" si="25">SUM(G61:G70)</f>
+        <f t="shared" ref="G71:R71" si="27">SUM(G61:G70)</f>
         <v>85387</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>86755</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>89234</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>90499</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91409</v>
       </c>
       <c r="L71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92399</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91040</v>
       </c>
       <c r="N71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>94511</v>
       </c>
       <c r="O71" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91888</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="5">
+        <f t="shared" si="27"/>
+        <v>99627</v>
+      </c>
+      <c r="S71" s="5"/>
+    </row>
+    <row r="73" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="2">
-        <f t="shared" ref="G73:J73" si="26">G39</f>
+        <f t="shared" ref="G73:J73" si="28">G39</f>
         <v>4747</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4491</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4848</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5057</v>
       </c>
       <c r="K73" s="2">
@@ -3480,10 +3931,22 @@
         <f>O39</f>
         <v>5445</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="2">
+        <f>P39</f>
+        <v>5882</v>
+      </c>
+      <c r="Q73" s="2">
+        <f>Q39</f>
+        <v>6204</v>
+      </c>
+      <c r="R73" s="2">
+        <f>R39</f>
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3523,9 +3986,9 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="75" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3565,9 +4028,9 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="76" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3607,9 +4070,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3649,9 +4112,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3691,9 +4154,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3733,9 +4196,9 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="80" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3777,7 +4240,7 @@
     </row>
     <row r="81" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3819,7 +4282,7 @@
     </row>
     <row r="82" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3864,42 +4327,42 @@
     </row>
     <row r="83" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="2">
-        <f t="shared" ref="G83" si="27">SUM(G74:G82)</f>
+        <f t="shared" ref="G83" si="29">SUM(G74:G82)</f>
         <v>4171</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" ref="H83" si="28">SUM(H74:H82)</f>
+        <f t="shared" ref="H83" si="30">SUM(H74:H82)</f>
         <v>3860</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" ref="I83" si="29">SUM(I74:I82)</f>
+        <f t="shared" ref="I83" si="31">SUM(I74:I82)</f>
         <v>5797</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" ref="J83" si="30">SUM(J74:J82)</f>
+        <f t="shared" ref="J83" si="32">SUM(J74:J82)</f>
         <v>6927</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:N83" si="31">SUM(K74:K82)</f>
+        <f t="shared" ref="K83:N83" si="33">SUM(K74:K82)</f>
         <v>3614</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4538</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5134</v>
       </c>
       <c r="N83" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6664</v>
       </c>
       <c r="O83" s="2">
@@ -3909,7 +4372,7 @@
     </row>
     <row r="85" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3951,7 +4414,7 @@
     </row>
     <row r="86" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3995,7 +4458,7 @@
     </row>
     <row r="87" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4032,7 +4495,7 @@
     </row>
     <row r="88" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4076,26 +4539,26 @@
     </row>
     <row r="89" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="2">
-        <f t="shared" ref="G89:J89" si="32">SUM(G85:G88)</f>
+        <f t="shared" ref="G89:J89" si="34">SUM(G85:G88)</f>
         <v>-510</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-325</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-1188</v>
       </c>
       <c r="K89" s="2">
@@ -4135,7 +4598,7 @@
     </row>
     <row r="91" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4216,7 +4679,7 @@
     </row>
     <row r="93" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4258,7 +4721,7 @@
     </row>
     <row r="94" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4303,7 +4766,7 @@
     </row>
     <row r="95" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4345,52 +4808,52 @@
     </row>
     <row r="96" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="2">
-        <f t="shared" ref="G96:O96" si="33">SUM(G91:G95)</f>
+        <f t="shared" ref="G96:O96" si="35">SUM(G91:G95)</f>
         <v>-6347</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2926</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-3919</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-4580</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-4379</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-3874</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5311</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-7069</v>
       </c>
       <c r="O96" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5475</v>
       </c>
     </row>
-    <row r="97" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -4430,54 +4893,54 @@
         <v>-508</v>
       </c>
     </row>
-    <row r="98" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="2">
-        <f t="shared" ref="G98:O98" si="34">+G97+G96+G89+G83</f>
+        <f t="shared" ref="G98:O98" si="36">+G97+G96+G89+G83</f>
         <v>-1994</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>745</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1911</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>951</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-2354</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-688</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>328</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>487</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G100" s="5">
         <f>+G83+G85</f>
@@ -4500,55 +4963,67 @@
         <v>3347</v>
       </c>
       <c r="L100" s="5">
-        <f t="shared" ref="L100:O100" si="35">+L83+L85</f>
+        <f t="shared" ref="L100:O100" si="37">+L83+L85</f>
         <v>4257</v>
       </c>
       <c r="M100" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4734</v>
       </c>
       <c r="N100" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6355</v>
       </c>
       <c r="O100" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5051</v>
       </c>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J101" s="2">
-        <f t="shared" ref="J101:O101" si="36">SUM(G100:J100)</f>
+        <f t="shared" ref="J101:O101" si="38">SUM(G100:J100)</f>
         <v>19696</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19121</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19728</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>18960</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>18693</v>
       </c>
       <c r="O101" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>20397</v>
       </c>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
